--- a/po_analysis_by_asin/B0BV7GCW8D_po_data.xlsx
+++ b/po_analysis_by_asin/B0BV7GCW8D_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -533,7 +534,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -575,6 +576,257 @@
       </c>
       <c r="B6" t="n">
         <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>44983.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9.700186189984345</v>
+      </c>
+      <c r="D2" t="n">
+        <v>11.85248807989762</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>44997.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+      <c r="C3" t="n">
+        <v>9.261049761434197</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.46650510803554</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45004.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9.15742709001684</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11.22157592547203</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45011.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+      <c r="C5" t="n">
+        <v>8.873899761378324</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.09540140741677</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45032.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8.314981867805932</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.50396730069762</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.255487597370445</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.436483759882615</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45158.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.863400026039778</v>
+      </c>
+      <c r="D8" t="n">
+        <v>7.154056947396551</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45165.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.730660658698565</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.91990369134753</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45172.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.572220948545121</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6.732225666535581</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45179.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4.473103626922346</v>
+      </c>
+      <c r="D11" t="n">
+        <v>6.608801449161947</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>4.172300209848599</v>
+      </c>
+      <c r="D12" t="n">
+        <v>6.362096153519151</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>5</v>
+      </c>
+      <c r="C13" t="n">
+        <v>4.065123971191731</v>
+      </c>
+      <c r="D13" t="n">
+        <v>6.172411784771924</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45200.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.818428606665114</v>
+      </c>
+      <c r="D14" t="n">
+        <v>6.050665862546493</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3.566237166581967</v>
+      </c>
+      <c r="D15" t="n">
+        <v>5.819159347669398</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3.439538926731941</v>
+      </c>
+      <c r="D16" t="n">
+        <v>5.578072501302114</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BV7GCW8D_po_data.xlsx
+++ b/po_analysis_by_asin/B0BV7GCW8D_po_data.xlsx
@@ -589,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,16 +608,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -626,12 +616,6 @@
       <c r="B2" t="n">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
-        <v>9.700186189984345</v>
-      </c>
-      <c r="D2" t="n">
-        <v>11.85248807989762</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -640,12 +624,6 @@
       <c r="B3" t="n">
         <v>10</v>
       </c>
-      <c r="C3" t="n">
-        <v>9.261049761434197</v>
-      </c>
-      <c r="D3" t="n">
-        <v>11.46650510803554</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -654,12 +632,6 @@
       <c r="B4" t="n">
         <v>10</v>
       </c>
-      <c r="C4" t="n">
-        <v>9.15742709001684</v>
-      </c>
-      <c r="D4" t="n">
-        <v>11.22157592547203</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -668,12 +640,6 @@
       <c r="B5" t="n">
         <v>10</v>
       </c>
-      <c r="C5" t="n">
-        <v>8.873899761378324</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.09540140741677</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -682,12 +648,6 @@
       <c r="B6" t="n">
         <v>9</v>
       </c>
-      <c r="C6" t="n">
-        <v>8.314981867805932</v>
-      </c>
-      <c r="D6" t="n">
-        <v>10.50396730069762</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -696,12 +656,6 @@
       <c r="B7" t="n">
         <v>8</v>
       </c>
-      <c r="C7" t="n">
-        <v>7.255487597370445</v>
-      </c>
-      <c r="D7" t="n">
-        <v>9.436483759882615</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -710,12 +664,6 @@
       <c r="B8" t="n">
         <v>6</v>
       </c>
-      <c r="C8" t="n">
-        <v>4.863400026039778</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.154056947396551</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -724,12 +672,6 @@
       <c r="B9" t="n">
         <v>6</v>
       </c>
-      <c r="C9" t="n">
-        <v>4.730660658698565</v>
-      </c>
-      <c r="D9" t="n">
-        <v>6.91990369134753</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -738,12 +680,6 @@
       <c r="B10" t="n">
         <v>6</v>
       </c>
-      <c r="C10" t="n">
-        <v>4.572220948545121</v>
-      </c>
-      <c r="D10" t="n">
-        <v>6.732225666535581</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -752,12 +688,6 @@
       <c r="B11" t="n">
         <v>5</v>
       </c>
-      <c r="C11" t="n">
-        <v>4.473103626922346</v>
-      </c>
-      <c r="D11" t="n">
-        <v>6.608801449161947</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -766,12 +696,6 @@
       <c r="B12" t="n">
         <v>5</v>
       </c>
-      <c r="C12" t="n">
-        <v>4.172300209848599</v>
-      </c>
-      <c r="D12" t="n">
-        <v>6.362096153519151</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -780,12 +704,6 @@
       <c r="B13" t="n">
         <v>5</v>
       </c>
-      <c r="C13" t="n">
-        <v>4.065123971191731</v>
-      </c>
-      <c r="D13" t="n">
-        <v>6.172411784771924</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -794,12 +712,6 @@
       <c r="B14" t="n">
         <v>5</v>
       </c>
-      <c r="C14" t="n">
-        <v>3.818428606665114</v>
-      </c>
-      <c r="D14" t="n">
-        <v>6.050665862546493</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -808,12 +720,6 @@
       <c r="B15" t="n">
         <v>5</v>
       </c>
-      <c r="C15" t="n">
-        <v>3.566237166581967</v>
-      </c>
-      <c r="D15" t="n">
-        <v>5.819159347669398</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -821,12 +727,6 @@
       </c>
       <c r="B16" t="n">
         <v>5</v>
-      </c>
-      <c r="C16" t="n">
-        <v>3.439538926731941</v>
-      </c>
-      <c r="D16" t="n">
-        <v>5.578072501302114</v>
       </c>
     </row>
   </sheetData>
